--- a/test/test_data/test_data_IZ_to_IZ_1.xlsx
+++ b/test/test_data/test_data_IZ_to_IZ_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaphaëlRey\PycharmProjects\iz_to_iz_transfer\test\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D3904F-C5EA-4D1F-A99E-01D93955BBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EA914E-419E-42FC-9D75-8E6B8870742E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="74250" yWindow="1650" windowWidth="14400" windowHeight="15030" tabRatio="800" xr2:uid="{AD365A3D-3304-46D8-98A5-452209B6D1C5}"/>
+    <workbookView xWindow="910" yWindow="310" windowWidth="14400" windowHeight="11370" tabRatio="800" firstSheet="5" activeTab="9" xr2:uid="{AD365A3D-3304-46D8-98A5-452209B6D1C5}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,9 @@
     <sheet name="Loans" sheetId="10" r:id="rId6"/>
     <sheet name="Requests" sheetId="11" r:id="rId7"/>
     <sheet name="Locations_mapping" sheetId="3" r:id="rId8"/>
-    <sheet name="Item_policies_mapping" sheetId="5" r:id="rId9"/>
-    <sheet name="Funds_mapping" sheetId="12" r:id="rId10"/>
-    <sheet name="Vendors_mapping" sheetId="7" r:id="rId11"/>
-    <sheet name="data_validation" sheetId="4" state="hidden" r:id="rId12"/>
+    <sheet name="Funds_mapping" sheetId="12" r:id="rId9"/>
+    <sheet name="Vendors_mapping" sheetId="7" r:id="rId10"/>
+    <sheet name="data_validation" sheetId="4" state="hidden" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -201,9 +200,6 @@
     <t>*DEFAULT*</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>Yes / No</t>
   </si>
   <si>
@@ -366,12 +362,6 @@
     <t>000007023</t>
   </si>
   <si>
-    <t>Destination item policy</t>
-  </si>
-  <si>
-    <t>Source item policy</t>
-  </si>
-  <si>
     <t>Source vendor code</t>
   </si>
   <si>
@@ -391,6 +381,15 @@
   </si>
   <si>
     <t>temp_location, temp_library, in_temp_location</t>
+  </si>
+  <si>
+    <t>A100-1044</t>
+  </si>
+  <si>
+    <t>000007024</t>
+  </si>
+  <si>
+    <t>h000007024</t>
   </si>
 </sst>
 </file>
@@ -459,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -480,6 +479,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,7 +799,7 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="36">
       <c r="A1" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -823,18 +823,18 @@
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -855,25 +855,25 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>46</v>
@@ -887,114 +887,114 @@
     </row>
     <row r="13" spans="1:4" ht="29">
       <c r="A13" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="29">
       <c r="A15" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="46" customHeight="1">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="29">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="D17" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="29">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="29">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1034,59 +1034,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED99D418-FB11-4449-B88D-57A5CC883B32}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="2" width="25.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA927E34-BE12-40DF-B526-F644C6AE1FDF}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1096,16 +1051,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1120,39 +1075,53 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>105</v>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A0D6C5-D024-428E-995D-36256CF838C1}">
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -1170,25 +1139,25 @@
         <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="11"/>
     </row>
@@ -1200,10 +1169,10 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1211,7 +1180,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1431,34 +1400,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1485,7 +1454,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1520,58 +1489,58 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1673,38 +1642,46 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206F50D4-37BA-4D0A-9619-E97216BE8408}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED99D418-FB11-4449-B88D-57A5CC883B32}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.453125" style="5" customWidth="1"/>
+    <col min="1" max="2" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>106</v>
+      <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>51</v>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/test_data/test_data_IZ_to_IZ_1.xlsx
+++ b/test/test_data/test_data_IZ_to_IZ_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaphaëlRey\PycharmProjects\iz_to_iz_transfer\test\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EA914E-419E-42FC-9D75-8E6B8870742E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D758B53-1776-485C-9365-7FE13AE92198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="910" yWindow="310" windowWidth="14400" windowHeight="11370" tabRatio="800" firstSheet="5" activeTab="9" xr2:uid="{AD365A3D-3304-46D8-98A5-452209B6D1C5}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="14400" windowHeight="8170" tabRatio="800" firstSheet="8" activeTab="7" xr2:uid="{AD365A3D-3304-46D8-98A5-452209B6D1C5}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="116">
   <si>
     <t>Barcode</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>h000007024</t>
+  </si>
+  <si>
+    <t>100U3</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -479,7 +482,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1040,7 +1042,7 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1105,7 +1107,7 @@
       <c r="A5" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1337,7 +1339,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
@@ -1586,10 +1588,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
@@ -1632,6 +1634,20 @@
         <v>49</v>
       </c>
       <c r="D3">
+        <v>610940001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4">
         <v>610940001</v>
       </c>
     </row>

--- a/test/test_data/test_data_IZ_to_IZ_1.xlsx
+++ b/test/test_data/test_data_IZ_to_IZ_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaphaëlRey\PycharmProjects\iz_to_iz_transfer\test\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D758B53-1776-485C-9365-7FE13AE92198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2488FFC4-DB4E-4DDF-B048-ECCA074F7EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="14400" windowHeight="8170" tabRatio="800" firstSheet="8" activeTab="7" xr2:uid="{AD365A3D-3304-46D8-98A5-452209B6D1C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="800" xr2:uid="{AD365A3D-3304-46D8-98A5-452209B6D1C5}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="115">
   <si>
     <t>Barcode</t>
   </si>
@@ -212,30 +212,12 @@
     <t>ABN</t>
   </si>
   <si>
-    <t>Holding_id</t>
-  </si>
-  <si>
     <t>IZ_MMS_id</t>
   </si>
   <si>
-    <t>997922310105504</t>
-  </si>
-  <si>
-    <t>22267618040005504</t>
-  </si>
-  <si>
-    <t>994984720105504</t>
-  </si>
-  <si>
     <t>22279716630005504</t>
   </si>
   <si>
-    <t>22306683670005504</t>
-  </si>
-  <si>
-    <t>9911787970105504</t>
-  </si>
-  <si>
     <t>ABC_vendor</t>
   </si>
   <si>
@@ -393,6 +375,21 @@
   </si>
   <si>
     <t>100U3</t>
+  </si>
+  <si>
+    <t>22251862090005504</t>
+  </si>
+  <si>
+    <t>9911316190105504</t>
+  </si>
+  <si>
+    <t>22301579400005504</t>
+  </si>
+  <si>
+    <t>993912070105504</t>
+  </si>
+  <si>
+    <t>991094680105504</t>
   </si>
 </sst>
 </file>
@@ -801,8 +798,8 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
@@ -815,7 +812,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="36">
       <c r="A1" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -825,18 +822,18 @@
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -857,25 +854,25 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>46</v>
@@ -889,114 +886,114 @@
     </row>
     <row r="13" spans="1:4" ht="29">
       <c r="A13" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="29">
       <c r="A15" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="46" customHeight="1">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="29">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="29">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="29">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1053,16 +1050,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1077,44 +1074,44 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1144,7 +1141,7 @@
         <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1159,7 +1156,7 @@
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E2" s="11"/>
     </row>
@@ -1174,7 +1171,7 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1182,7 +1179,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1391,7 +1388,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -1401,35 +1398,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
+      <c r="A1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1456,7 +1453,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1481,7 +1478,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1491,58 +1488,58 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1590,7 +1587,7 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1642,7 +1639,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
@@ -1675,10 +1672,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1686,15 +1683,15 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_data/test_data_IZ_to_IZ_1.xlsx
+++ b/test/test_data/test_data_IZ_to_IZ_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaphaëlRey\PycharmProjects\iz_to_iz_transfer\test\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2488FFC4-DB4E-4DDF-B048-ECCA074F7EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230DF56E-31CB-4FD2-A85C-882B105C1CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="800" xr2:uid="{AD365A3D-3304-46D8-98A5-452209B6D1C5}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <sheet name="Locations_mapping" sheetId="3" r:id="rId8"/>
     <sheet name="Funds_mapping" sheetId="12" r:id="rId9"/>
     <sheet name="Vendors_mapping" sheetId="7" r:id="rId10"/>
-    <sheet name="data_validation" sheetId="4" state="hidden" r:id="rId11"/>
+    <sheet name="data_validation" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="130">
   <si>
     <t>Barcode</t>
   </si>
@@ -368,12 +368,6 @@
     <t>A100-1044</t>
   </si>
   <si>
-    <t>000007024</t>
-  </si>
-  <si>
-    <t>h000007024</t>
-  </si>
-  <si>
     <t>100U3</t>
   </si>
   <si>
@@ -390,13 +384,64 @@
   </si>
   <si>
     <t>991094680105504</t>
+  </si>
+  <si>
+    <t>100FH</t>
+  </si>
+  <si>
+    <t>POL-UBS-2025-167397</t>
+  </si>
+  <si>
+    <t>9940475580105504</t>
+  </si>
+  <si>
+    <t>23459806000005504</t>
+  </si>
+  <si>
+    <t>22459806010005504</t>
+  </si>
+  <si>
+    <t>UBS-A100-520</t>
+  </si>
+  <si>
+    <t>9972977285705504</t>
+  </si>
+  <si>
+    <t>POL-UBS-2025-167398</t>
+  </si>
+  <si>
+    <t>23458975970005504</t>
+  </si>
+  <si>
+    <t>22458975980005504</t>
+  </si>
+  <si>
+    <t>23458975960005504</t>
+  </si>
+  <si>
+    <t>A100-91465</t>
+  </si>
+  <si>
+    <t>Acquisition department</t>
+  </si>
+  <si>
+    <t>Best is to use circulation desk</t>
+  </si>
+  <si>
+    <t>DEFAULT_CIRC_DESK-AcqWorkOrder</t>
+  </si>
+  <si>
+    <t>000000015</t>
+  </si>
+  <si>
+    <t>Make reception</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +476,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -455,10 +508,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -479,8 +533,11 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -796,10 +853,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
@@ -878,99 +935,104 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30.5" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" ht="29">
-      <c r="A13" s="10" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30.5" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" ht="29">
+      <c r="A14" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29">
-      <c r="A14" t="s">
+    <row r="15" spans="1:4" ht="29">
+      <c r="A15" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="29">
-      <c r="A15" s="7" t="s">
+    <row r="16" spans="1:4" ht="29">
+      <c r="A16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="46" customHeight="1">
-      <c r="A16" t="s">
+    <row r="17" spans="1:4" ht="46" customHeight="1">
+      <c r="A17" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="29">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="29">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>74</v>
@@ -984,7 +1046,7 @@
     </row>
     <row r="20" spans="1:4" ht="29">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>74</v>
@@ -993,6 +1055,20 @@
         <v>74</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1012,7 +1088,7 @@
           <x14:formula1>
             <xm:f>data_validation!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B12</xm:sqref>
+          <xm:sqref>B13 B12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BA26AD9-284C-4EA0-B5B0-2A9B21BCA870}">
           <x14:formula1>
@@ -1024,7 +1100,7 @@
           <x14:formula1>
             <xm:f>data_validation!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B14:C20</xm:sqref>
+          <xm:sqref>B15:C21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1037,10 +1113,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1069,7 +1145,7 @@
       <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
@@ -1107,11 +1183,39 @@
       <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>108</v>
+      <c r="C5" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>107</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1407,23 +1511,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>56</v>
@@ -1475,10 +1579,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1540,6 +1644,48 @@
       </c>
       <c r="D4" s="5" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1585,10 +1731,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
@@ -1639,12 +1785,26 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
       </c>
       <c r="D4">
+        <v>610940001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5">
         <v>610940001</v>
       </c>
     </row>

--- a/test/test_data/test_data_IZ_to_IZ_1.xlsx
+++ b/test/test_data/test_data_IZ_to_IZ_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaphaëlRey\PycharmProjects\iz_to_iz_transfer\test\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230DF56E-31CB-4FD2-A85C-882B105C1CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F64574-3D3F-4A29-B825-29308CB30599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="800" xr2:uid="{AD365A3D-3304-46D8-98A5-452209B6D1C5}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="134">
   <si>
     <t>Barcode</t>
   </si>
@@ -435,6 +435,18 @@
   </si>
   <si>
     <t>Make reception</t>
+  </si>
+  <si>
+    <t>Delete the following poline fields</t>
+  </si>
+  <si>
+    <t>Only used in one time PoLines</t>
+  </si>
+  <si>
+    <t>Delete if error will delete the interested user if the copy in destination IZ fails</t>
+  </si>
+  <si>
+    <t>interested_user</t>
   </si>
 </sst>
 </file>
@@ -853,10 +865,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
@@ -953,6 +965,9 @@
       <c r="B12" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="30.5" customHeight="1">
       <c r="A13" s="6"/>
@@ -1072,9 +1087,29 @@
         <v>81</v>
       </c>
     </row>
+    <row r="23" spans="1:4" ht="29">
+      <c r="A23" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="29">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -1088,7 +1123,7 @@
           <x14:formula1>
             <xm:f>data_validation!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B13 B12</xm:sqref>
+          <xm:sqref>B12:B13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BA26AD9-284C-4EA0-B5B0-2A9B21BCA870}">
           <x14:formula1>
@@ -1100,7 +1135,7 @@
           <x14:formula1>
             <xm:f>data_validation!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B15:C21</xm:sqref>
+          <xm:sqref>B15:C21 C24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/test/test_data/test_data_IZ_to_IZ_1.xlsx
+++ b/test/test_data/test_data_IZ_to_IZ_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaphaëlRey\PycharmProjects\iz_to_iz_transfer\test\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F64574-3D3F-4A29-B825-29308CB30599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F452C366-3CDD-4E17-8BB8-D3FB20949E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="800" xr2:uid="{AD365A3D-3304-46D8-98A5-452209B6D1C5}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="8170" tabRatio="800" activeTab="3" xr2:uid="{AD365A3D-3304-46D8-98A5-452209B6D1C5}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="133">
   <si>
     <t>Barcode</t>
   </si>
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>ABN</t>
-  </si>
-  <si>
-    <t>IZ_MMS_id</t>
   </si>
   <si>
     <t>22279716630005504</t>
@@ -867,7 +864,7 @@
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -881,7 +878,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="36">
       <c r="A1" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -891,18 +888,18 @@
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -923,25 +920,25 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>46</v>
@@ -949,24 +946,24 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
         <v>125</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30.5" customHeight="1">
@@ -977,133 +974,133 @@
     </row>
     <row r="14" spans="1:4" ht="29">
       <c r="A14" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="29">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="29">
       <c r="A16" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="46" customHeight="1">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D18" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="29">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="29">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="29">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="29">
       <c r="A23" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="29">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1161,16 +1158,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1185,72 +1182,72 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1280,7 +1277,7 @@
         <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1295,7 +1292,7 @@
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="11"/>
     </row>
@@ -1310,7 +1307,7 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1318,7 +1315,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1526,9 +1523,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
@@ -1538,34 +1533,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1581,9 +1576,7 @@
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
@@ -1591,8 +1584,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>55</v>
+      <c r="A1" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1627,100 +1620,100 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1820,7 +1813,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
@@ -1834,7 +1827,7 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
         <v>49</v>
@@ -1867,10 +1860,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1878,15 +1871,15 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_data/test_data_IZ_to_IZ_1.xlsx
+++ b/test/test_data/test_data_IZ_to_IZ_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaphaëlRey\PycharmProjects\iz_to_iz_transfer\test\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F452C366-3CDD-4E17-8BB8-D3FB20949E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845F8F7E-19F7-448C-BB62-494E9893008C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="8170" tabRatio="800" activeTab="3" xr2:uid="{AD365A3D-3304-46D8-98A5-452209B6D1C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="800" activeTab="7" xr2:uid="{AD365A3D-3304-46D8-98A5-452209B6D1C5}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="PoLines" sheetId="9" r:id="rId5"/>
     <sheet name="Loans" sheetId="10" r:id="rId6"/>
     <sheet name="Requests" sheetId="11" r:id="rId7"/>
-    <sheet name="Locations_mapping" sheetId="3" r:id="rId8"/>
-    <sheet name="Funds_mapping" sheetId="12" r:id="rId9"/>
-    <sheet name="Vendors_mapping" sheetId="7" r:id="rId10"/>
-    <sheet name="data_validation" sheetId="4" r:id="rId11"/>
+    <sheet name="Collections" sheetId="13" r:id="rId8"/>
+    <sheet name="Locations_mapping" sheetId="3" r:id="rId9"/>
+    <sheet name="Funds_mapping" sheetId="12" r:id="rId10"/>
+    <sheet name="Vendors_mapping" sheetId="7" r:id="rId11"/>
+    <sheet name="data_validation" sheetId="4" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="137">
   <si>
     <t>Barcode</t>
   </si>
@@ -444,13 +445,25 @@
   </si>
   <si>
     <t>interested_user</t>
+  </si>
+  <si>
+    <t>Collection ID source</t>
+  </si>
+  <si>
+    <t>Collection ID dest</t>
+  </si>
+  <si>
+    <t>8144084810005525</t>
+  </si>
+  <si>
+    <t>81402455320005504</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +506,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -517,9 +537,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -545,9 +566,10 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{BE98590E-28D4-4BCF-9C92-437C03B55EEB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -864,7 +886,7 @@
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -1141,6 +1163,51 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED99D418-FB11-4449-B88D-57A5CC883B32}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="2" width="25.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA927E34-BE12-40DF-B526-F644C6AE1FDF}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -1256,7 +1323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A0D6C5-D024-428E-995D-36256CF838C1}">
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -1576,7 +1643,7 @@
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
@@ -1755,6 +1822,43 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EB3F0F-346F-423E-9F38-DE04E26DC533}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="2" width="25.1796875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CD200A-AAE3-41A8-B7B7-08FF5A82F532}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
@@ -1840,49 +1944,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED99D418-FB11-4449-B88D-57A5CC883B32}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="2" width="25.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/test/test_data/test_data_IZ_to_IZ_1.xlsx
+++ b/test/test_data/test_data_IZ_to_IZ_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaphaëlRey\PycharmProjects\iz_to_iz_transfer\test\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845F8F7E-19F7-448C-BB62-494E9893008C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBA09C9-D03D-4EBF-8B9A-A87DFB07DA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="800" activeTab="7" xr2:uid="{AD365A3D-3304-46D8-98A5-452209B6D1C5}"/>
+    <workbookView xWindow="1040" yWindow="1780" windowWidth="14400" windowHeight="8170" tabRatio="800" activeTab="5" xr2:uid="{AD365A3D-3304-46D8-98A5-452209B6D1C5}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="162">
   <si>
     <t>Barcode</t>
   </si>
@@ -441,9 +441,6 @@
     <t>Only used in one time PoLines</t>
   </si>
   <si>
-    <t>Delete if error will delete the interested user if the copy in destination IZ fails</t>
-  </si>
-  <si>
     <t>interested_user</t>
   </si>
   <si>
@@ -457,6 +454,84 @@
   </si>
   <si>
     <t>81402455320005504</t>
+  </si>
+  <si>
+    <t>DEFAULT_CIRC_DESK</t>
+  </si>
+  <si>
+    <t>Only used to copy loans and requests</t>
+  </si>
+  <si>
+    <t>Circulation desk source</t>
+  </si>
+  <si>
+    <t>Circulation desk destination</t>
+  </si>
+  <si>
+    <t>A100_KUR</t>
+  </si>
+  <si>
+    <t>Primary_id</t>
+  </si>
+  <si>
+    <t>MMS_id_s</t>
+  </si>
+  <si>
+    <t>Holding_id_s</t>
+  </si>
+  <si>
+    <t>Item_id_s</t>
+  </si>
+  <si>
+    <t>MMS_id_d</t>
+  </si>
+  <si>
+    <t>Holding_id_d</t>
+  </si>
+  <si>
+    <t>Item_id_d</t>
+  </si>
+  <si>
+    <t>23466664260005504</t>
+  </si>
+  <si>
+    <t>22460097720005504</t>
+  </si>
+  <si>
+    <t>991000770059705525</t>
+  </si>
+  <si>
+    <t>2213180530005525</t>
+  </si>
+  <si>
+    <t>2339148550005525</t>
+  </si>
+  <si>
+    <t>test@test.ch</t>
+  </si>
+  <si>
+    <t>9972511012905504</t>
+  </si>
+  <si>
+    <t>Request cancellation note</t>
+  </si>
+  <si>
+    <t>If empty, no cancellation not when cancelling requests</t>
+  </si>
+  <si>
+    <t>Request_id_s</t>
+  </si>
+  <si>
+    <t>Make returns</t>
+  </si>
+  <si>
+    <t>Make loans</t>
+  </si>
+  <si>
+    <t>"Delete if error" will delete the interested user if the copy in destination IZ fails. Interested users are only kept if the PoLine is in "SENT" status.</t>
+  </si>
+  <si>
+    <t>UBS000061541</t>
   </si>
 </sst>
 </file>
@@ -884,10 +959,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
@@ -898,22 +973,22 @@
     <col min="4" max="4" width="62.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36">
+    <row r="1" spans="1:3" ht="36">
       <c r="A1" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="C4" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -924,7 +999,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,7 +1007,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -940,7 +1015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
@@ -949,7 +1024,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
@@ -958,7 +1033,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>70</v>
       </c>
@@ -966,121 +1041,98 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30.5" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" ht="29">
-      <c r="A14" s="10" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30.5" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="29">
+      <c r="A19" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="29">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="29">
-      <c r="A16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="46" customHeight="1">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="29">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="29">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="29">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>73</v>
@@ -1089,40 +1141,110 @@
         <v>73</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="29">
-      <c r="A21" t="s">
-        <v>62</v>
+      <c r="A21" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="46" customHeight="1">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="29">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="29">
-      <c r="A23" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>66</v>
+      <c r="C23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="29">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>60</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="29">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="29">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="29">
+      <c r="A28" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="29">
+      <c r="A29" t="s">
         <v>131</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1264,7 @@
           <x14:formula1>
             <xm:f>data_validation!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B12:B13</xm:sqref>
+          <xm:sqref>B15:B18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BA26AD9-284C-4EA0-B5B0-2A9B21BCA870}">
           <x14:formula1>
@@ -1154,7 +1276,7 @@
           <x14:formula1>
             <xm:f>data_validation!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B15:C21 C24</xm:sqref>
+          <xm:sqref>B20:C26 C29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1794,13 +1916,105 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.453125" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="8" width="21.453125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1809,14 +2023,35 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="5" width="20.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1828,7 +2063,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1839,18 +2074,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_data/test_data_IZ_to_IZ_1.xlsx
+++ b/test/test_data/test_data_IZ_to_IZ_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaphaëlRey\PycharmProjects\iz_to_iz_transfer\test\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBA09C9-D03D-4EBF-8B9A-A87DFB07DA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A026DEDE-D2F6-4AEF-BEAD-B4156E7A2079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1780" windowWidth="14400" windowHeight="8170" tabRatio="800" activeTab="5" xr2:uid="{AD365A3D-3304-46D8-98A5-452209B6D1C5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="800" activeTab="6" xr2:uid="{AD365A3D-3304-46D8-98A5-452209B6D1C5}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="165">
   <si>
     <t>Barcode</t>
   </si>
@@ -532,6 +532,15 @@
   </si>
   <si>
     <t>UBS000061541</t>
+  </si>
+  <si>
+    <t>Request cancellation reason</t>
+  </si>
+  <si>
+    <t>CannotBeFulfilled</t>
+  </si>
+  <si>
+    <t>29351456860005504</t>
   </si>
 </sst>
 </file>
@@ -959,10 +968,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
@@ -1019,7 +1028,9 @@
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C8" t="s">
         <v>83</v>
       </c>
@@ -1028,7 +1039,9 @@
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="C9" t="s">
         <v>83</v>
       </c>
@@ -1065,144 +1078,138 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" t="s">
-        <v>156</v>
+        <v>162</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>126</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B14" s="3"/>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30.5" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" ht="29">
-      <c r="A19" s="10" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30.5" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="29">
+      <c r="A20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="29">
-      <c r="A20" t="s">
+    <row r="21" spans="1:4" ht="29">
+      <c r="A21" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="29">
-      <c r="A21" s="7" t="s">
+    <row r="22" spans="1:4" ht="29">
+      <c r="A22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="46" customHeight="1">
-      <c r="A22" t="s">
+    <row r="23" spans="1:4" ht="46" customHeight="1">
+      <c r="A23" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="29">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="29">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="29">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>73</v>
@@ -1216,7 +1223,7 @@
     </row>
     <row r="26" spans="1:4" ht="29">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>73</v>
@@ -1228,22 +1235,36 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="29">
-      <c r="A28" s="10" t="s">
+    <row r="27" spans="1:4" ht="29">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="29">
+      <c r="A29" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="29">
-      <c r="A29" t="s">
+    <row r="30" spans="1:4" ht="29">
+      <c r="A30" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1260,12 +1281,6 @@
           </x14:formula1>
           <xm:sqref>B10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AD1CBFF3-7A39-414B-8090-527E27A9FEB0}">
-          <x14:formula1>
-            <xm:f>data_validation!$C$2:$C$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B15:B18</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BA26AD9-284C-4EA0-B5B0-2A9B21BCA870}">
           <x14:formula1>
             <xm:f>data_validation!$A$2:$A$32</xm:f>
@@ -1276,7 +1291,13 @@
           <x14:formula1>
             <xm:f>data_validation!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B20:C26 C29</xm:sqref>
+          <xm:sqref>B21:C27 C30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AD1CBFF3-7A39-414B-8090-527E27A9FEB0}">
+          <x14:formula1>
+            <xm:f>data_validation!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B16:B19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1918,7 +1939,7 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2023,32 +2044,35 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="5" width="20.90625" customWidth="1"/>
+    <col min="1" max="2" width="20.90625" style="5" customWidth="1"/>
+    <col min="3" max="5" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>147</v>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_data/test_data_IZ_to_IZ_1.xlsx
+++ b/test/test_data/test_data_IZ_to_IZ_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaphaëlRey\PycharmProjects\iz_to_iz_transfer\test\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A026DEDE-D2F6-4AEF-BEAD-B4156E7A2079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D050491-4696-49E1-B5B5-244E149B994F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="800" activeTab="6" xr2:uid="{AD365A3D-3304-46D8-98A5-452209B6D1C5}"/>
+    <workbookView xWindow="-17595" yWindow="3780" windowWidth="14400" windowHeight="8175" tabRatio="800" xr2:uid="{AD365A3D-3304-46D8-98A5-452209B6D1C5}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -970,8 +970,8 @@
   </sheetPr>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
@@ -1120,7 +1120,7 @@
         <v>159</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2046,7 +2046,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
